--- a/va_facility_data_2025-02-20/Brownsburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brownsburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Brownsburg VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Brownsburg%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R57b253734d16402081f693099ffae510"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R41b7cbb17150443f88180bb85639b9a0"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R40fad424575942b9976ca8e2de792161"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R0e631f42c30846d780facfa239f10d37"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1aa4c0f4300d4d5da750cedfb036710d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2dbb2c0c2c854633a14147f313ed7f16"/>
   </x:sheets>
 </x:workbook>
 </file>
